--- a/Doc/Security controls.xlsx
+++ b/Doc/Security controls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC31E4E-9C1E-4605-A2A4-E5DEC8B9DB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D200817-5493-4426-AC39-027EE063686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="1" xr2:uid="{89D91B76-EE27-4B2D-B14A-0AE171F3189A}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{89D91B76-EE27-4B2D-B14A-0AE171F3189A}"/>
   </bookViews>
   <sheets>
     <sheet name="AC" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1409">
   <si>
     <t>AC-1</t>
   </si>
@@ -4272,6 +4272,9 @@
   </si>
   <si>
     <t>Keycloak memorizza nel suo database le informazioni e le credenziali degli utenti. Le altre informazioni sensibili sono conservate con Vault e segreti docker.</t>
+  </si>
+  <si>
+    <t>Implementato tramite nginx reverse proxy e port forwarding.</t>
   </si>
 </sst>
 </file>
@@ -4368,13 +4371,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5542,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D909E1F4-A821-BF49-A186-3C2C69F4FFDC}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6084,7 +6087,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>926</v>
       </c>
@@ -6095,14 +6098,17 @@
         <v>479</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="26" t="s">
         <v>894</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G33" s="19" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>927</v>
       </c>
@@ -6116,7 +6122,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>928</v>
       </c>
@@ -6130,7 +6136,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>929</v>
       </c>
@@ -6144,7 +6150,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>930</v>
       </c>
@@ -6160,7 +6166,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>931</v>
       </c>
@@ -6174,7 +6180,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>932</v>
       </c>
@@ -6188,7 +6194,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>933</v>
       </c>
@@ -6202,7 +6208,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>934</v>
       </c>
@@ -6216,7 +6222,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>935</v>
       </c>
@@ -6230,7 +6236,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>936</v>
       </c>
@@ -6244,7 +6250,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>937</v>
       </c>
@@ -6258,7 +6264,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>938</v>
       </c>
@@ -6272,7 +6278,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>939</v>
       </c>
@@ -6286,7 +6292,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>940</v>
       </c>
@@ -6300,7 +6306,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>941</v>
       </c>
@@ -7911,7 +7917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65B491F-D38B-4FDB-A8F9-D1546DD8BFAF}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -8807,7 +8813,7 @@
         <v>646</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="26"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="10" t="s">
         <v>894</v>
       </c>
